--- a/biology/Médecine/Mies_Reenkola/Mies_Reenkola.xlsx
+++ b/biology/Médecine/Mies_Reenkola/Mies_Reenkola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mies Arno Heikki Reenkola,  (né Renvall le 29 février 1908 à Helsinki – mort le 11 octobre 1988 à Rauma) est un gynécologue finlandais[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mies Arno Heikki Reenkola,  (né Renvall le 29 février 1908 à Helsinki – mort le 11 octobre 1988 à Rauma) est un gynécologue finlandais,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mies Reenkola est le fils d'Heikki Renvall et d'Aino Ackté, et le frère de Glory Leppänen. 
-Mies Reenkola passe son baccalauréat en 1927 et sin doctorat en 1941[1]. 
-En 1939, il change son nom de famille en Reenkola[3].
+Mies Reenkola passe son baccalauréat en 1927 et sin doctorat en 1941. 
+En 1939, il change son nom de famille en Reenkola.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Der normale Blutzuckerspiegel des Neugeborenen. Helsinki 1940
 Über die Ätiologie des grossen Neugeborenen mit Berücksichtigung der Konstitution der Mutter und besonders ihrer endokrinen Eigenschaften, väitöskirja. Helsinki 1941
